--- a/UserStories.xlsx
+++ b/UserStories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Teaching\Students\CSharpDaniels\Bank Account\BankAccountStartProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B34C64-0448-4A00-A58E-B6B6927CA17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB5C7EA-B7FD-427F-B9C7-DB39925FB5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{231DA04D-6DAE-44B8-BAB9-18B26F92E78E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{231DA04D-6DAE-44B8-BAB9-18B26F92E78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,18 +123,7 @@
 You must now store the bank accounts in a database so when the application starts up the old data is still present</t>
   </si>
   <si>
-    <t>-Setup database locally
-- Create a database project
-- Import database as C# classes into a db csproj
-- Create a new class that implements the IAccountRepository interface using entity framework
-- Remove Inmemory Account Repository class
-- When implementing the Updating Account - Ensure only the Balance, Withdrawn and PaidIn fields value change. Any other changes should be ingored</t>
-  </si>
-  <si>
     <t>Phase 3</t>
-  </si>
-  <si>
-    <t>In this phase the users have requested a nicer online user interface. A separate team will be building the online user interface but you task is to build a webservice with the endpoints for the operations they want to perform on the bank app.</t>
   </si>
   <si>
     <t>Account Service API</t>
@@ -173,12 +162,23 @@
     <t>(Extra) Email addresses</t>
   </si>
   <si>
-    <t>We've received reports that users are entering values that are not email addresses when creating an email. Enforce a check to make sure the email addresses are valid when creating an account</t>
+    <t>In this phase the users have requested a nicer online user interface. A separate team will be building the online user interface. Your task is to build a webservice with the endpoints for the operations they want to perform on the bank app.</t>
   </si>
   <si>
     <t>Ensure:
-- Email addresses contain an '@' and a '.'
-- Reject email address that fail this validation (throw exception) and don't create account</t>
+- Email addresses must contain '@' and '.'
+- Reject email address that fail this validation (throw exception) and don't create an account</t>
+  </si>
+  <si>
+    <t>We've received reports that users are entering values that are not vaild email addresses when creating an account. Enforce a check to make sure the email addresses are valid when creating an account</t>
+  </si>
+  <si>
+    <t>- Setup a database locally. You should store the accounts information in the database
+- Create a C# database project
+- Import database as C# classes into a db csproj
+- Create a new class that implements the IAccountRepository interface using entity framework
+- Remove InMemoryAccountRepository class and its tests (InMemoryAccountRepositoryTests)
+- When implementing the Updating Account - Ensure only the Balance, Withdrawn and PaidIn fields value change. Any other changes should be ingored</t>
   </si>
 </sst>
 </file>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B2D190-E5AA-41D8-965F-759EB4428387}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -598,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="116" x14ac:dyDescent="0.35">
@@ -637,7 +637,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
@@ -648,13 +648,13 @@
         <v>1.6</v>
       </c>
       <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -682,7 +682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2.2000000000000002</v>
       </c>
@@ -693,7 +693,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -702,7 +702,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -712,13 +712,13 @@
         <v>3.1</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -726,13 +726,13 @@
         <v>3.2</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">

--- a/UserStories.xlsx
+++ b/UserStories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Teaching\Students\CSharpDaniels\Bank Account\BankAccountStartProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB5C7EA-B7FD-427F-B9C7-DB39925FB5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A54939-8FD1-43E3-AD65-D0E54DE91155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{231DA04D-6DAE-44B8-BAB9-18B26F92E78E}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{231DA04D-6DAE-44B8-BAB9-18B26F92E78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>User Stories</t>
-  </si>
-  <si>
-    <t>Phase 1</t>
   </si>
   <si>
     <t>Id</t>
@@ -89,9 +86,6 @@
 - Users should be notified if their balance falls below 500 on a withdrawal or transfer</t>
   </si>
   <si>
-    <t>Phase 2</t>
-  </si>
-  <si>
     <t>Transfer money between 2 accounts</t>
   </si>
   <si>
@@ -123,13 +117,7 @@
 You must now store the bank accounts in a database so when the application starts up the old data is still present</t>
   </si>
   <si>
-    <t>Phase 3</t>
-  </si>
-  <si>
     <t>Account Service API</t>
-  </si>
-  <si>
-    <t>Data Encapsulation</t>
   </si>
   <si>
     <t>Encapsulate Fields: Account.Withdrawn, Account.Balance, and Account.PaidIn so they can be publicly accessed for reading, but only privately set</t>
@@ -180,13 +168,44 @@
 - Remove InMemoryAccountRepository class and its tests (InMemoryAccountRepositoryTests)
 - When implementing the Updating Account - Ensure only the Balance, Withdrawn and PaidIn fields value change. Any other changes should be ingored</t>
   </si>
+  <si>
+    <t>Phase 1: Bank Functionality</t>
+  </si>
+  <si>
+    <t>Phase 2: Data storage</t>
+  </si>
+  <si>
+    <t>Phase 3: Web Api</t>
+  </si>
+  <si>
+    <t>Phase 4: Additional tasks</t>
+  </si>
+  <si>
+    <t>(Extra) Data Encapsulation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -214,13 +233,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B2D190-E5AA-41D8-965F-759EB4428387}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -555,36 +578,39 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.1000000000000001</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
@@ -592,27 +618,27 @@
         <v>1.2</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.3</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
@@ -620,13 +646,13 @@
         <v>1.4</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -634,112 +660,133 @@
         <v>1.5</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2.1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>3.1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>1.6</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2.1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="145" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>4.2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="145" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>3.1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>3.2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:D18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UserStories.xlsx
+++ b/UserStories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Teaching\Students\CSharpDaniels\Bank Account\BankAccountStartProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A54939-8FD1-43E3-AD65-D0E54DE91155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC818A8-D193-48CA-AAA2-02865E6D451A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{231DA04D-6DAE-44B8-BAB9-18B26F92E78E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>User Stories</t>
   </si>
@@ -72,13 +72,6 @@
   </si>
   <si>
     <t>The bank has decided to increase the pay in limit and the low balance notification limit after complaints by the users</t>
-  </si>
-  <si>
-    <t>The customer will provide the Account Number (or Id) of the account to be withdrawn from and an amount to reduce their balance by. 
-- The Account Number (or Id) is an int
-- A withdrawal must result in the balance being decreased: Their balance should not increase (a pay-in should be done instead) and a withdrawal of 0 is not allowed
-- Users are not allowed to withdraw more money than they have in their account
-- Users should be notified if their balance falls below 500</t>
   </si>
   <si>
     <t>- Users are not allowed to pay in more than 40,000 in a single transaction/go
@@ -92,27 +85,11 @@
     <t>I as a customer of XYZ Bank want to be able to transfer money from a account into any other account at the bank</t>
   </si>
   <si>
-    <t>The customer will provide: the Account Number (or Id), and an amount to reduce their balance by. 
-- The Account Number (or Id) of the account to be withdrawn from. This is an int
-- The Account Number (or Id) of the account to paid into. This is an int
-- The amount to be transfered.
-The rules for pay-in and withdrawal must be followed</t>
-  </si>
-  <si>
-    <t>Fraudent Accounts Tracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the total paid in is more than 100,000,000 prevent any more pay-ins, withdrawals or transfers happening on that account </t>
-  </si>
-  <si>
     <t>The customer will provide:
 - Their Email.
 They will receive their Account Number (or Id) which is an int. A new account will be created with balance 0 for the user</t>
   </si>
   <si>
-    <t>Persistent Storage of the data</t>
-  </si>
-  <si>
     <t>The bank staff have complained that they need to always keep the app open otherwise they will lose all the data. And there has been cases of power failure/computer crashes and all the account data has been lost which is not acceptable. 
 You must now store the bank accounts in a database so when the application starts up the old data is still present</t>
   </si>
@@ -125,9 +102,6 @@
   <si>
     <t>You manager has done a code review of what the previous person did noticed that fields on the Account class that should be encapsulated are not properly encapsulated.
 This means they can be accidentally set to incorrect values by a developer writing code. We should fix this to make our application more secure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For audit purposes we keep track of the total amount withdrawn and the total amount paid-in. If the total amount paid-in is 100,000,000 or more, we suspect fraud and you should prevent any more pay-ins or withdrawals happening on that account </t>
   </si>
   <si>
     <t>Create a webservice that has endpoints to perform the following functionality:
@@ -182,6 +156,46 @@
   </si>
   <si>
     <t>(Extra) Data Encapsulation</t>
+  </si>
+  <si>
+    <t>For audit purposes we keep track of the total amount withdrawn and the total amount paid-in. If the total amount paid-in is 100,000,000 or more, we suspect fraud and you should prevent any more pay-ins or withdrawals happening on that account</t>
+  </si>
+  <si>
+    <t>Fraudulent Accounts Tracking</t>
+  </si>
+  <si>
+    <t>(Extra) Store notifications</t>
+  </si>
+  <si>
+    <t>Persistent Storage of the accounts data</t>
+  </si>
+  <si>
+    <t>The bank staff have requested that notifications be stored</t>
+  </si>
+  <si>
+    <t>You manager has given you free rein on this. You may store the notifications on a file or in the database you created. You should refactor your code appropriately to make sure that the single responsibility principle is followed, and the storage is decoupled from the notification functionality</t>
+  </si>
+  <si>
+    <t>The customer will provide the Account Number (or Id) of the account to be withdrawn from and an amount to reduce their balance by. 
+- The Account Number (or Id) is an int
+- A withdrawal must result in the balance being decreased: Their balance should not increase (a pay-in should be done instead) and a withdrawal of 0 is not allowed
+- Users are not allowed to withdraw more money than they have in their account
+- Users should be notified if their balance falls below 500
+Add any unit tests you feel necessary</t>
+  </si>
+  <si>
+    <t>The customer will provide: the Account Number (or Id), and an amount to reduce their balance by. 
+- The Account Number (or Id) of the account to be withdrawn from. This is an int
+- The Account Number (or Id) of the account to paid into. This is an int
+- The amount to be transfered.
+The rules for pay-in and withdrawal must be followed
+Add any unit tests you feel necessary</t>
+  </si>
+  <si>
+    <t>-If the total paid in is more than or equal to 100,000,000 prevent any more pay-ins, withdrawals or transfers happening on that account.
+- You must allow the transaction that will take them over the limit. For example if the account balance is 99,999,999 and they pay in 101. Allow the transaction so their new balance is now 100,000,100. From now on prevent any withdrawals, transfers or pay-ins from happening 
+- Notify that fraudulent activity has been detected when a Transfer or pay-in happens that takes the account over the limit
+Add any unit tests you feel necessary</t>
   </si>
 </sst>
 </file>
@@ -561,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B2D190-E5AA-41D8-965F-759EB4428387}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,7 +607,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -610,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
@@ -624,10 +638,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="129" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.3</v>
       </c>
@@ -638,35 +652,35 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.4</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1.5</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -675,7 +689,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -692,7 +706,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="145" x14ac:dyDescent="0.35">
@@ -700,13 +714,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -715,7 +729,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -726,13 +740,13 @@
         <v>3.1</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -741,7 +755,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -752,13 +766,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -766,13 +780,27 @@
         <v>4.2</v>
       </c>
       <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>4.3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
